--- a/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/3.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/3.3/report-checklist.xlsx
@@ -476,6 +476,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
   </si>
   <si>
+    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
     <t>RAD</t>
   </si>
   <si>
@@ -1788,9 +1791,6 @@
   </si>
   <si>
     <t>Campo valorizzato di default</t>
-  </si>
-  <si>
-    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
   </si>
   <si>
     <t>Campo valorizzabile tramite selezione da un set di valori ammessi</t>
@@ -5028,7 +5028,9 @@
       <c r="J13" t="s" s="77">
         <v>68</v>
       </c>
-      <c r="K13" s="78"/>
+      <c r="K13" t="s" s="77">
+        <v>77</v>
+      </c>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="78"/>
@@ -5052,10 +5054,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s" s="74">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s" s="75">
         <v>71</v>
@@ -5091,10 +5093,10 @@
         <v>64</v>
       </c>
       <c r="C15" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s" s="74">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s" s="75">
         <v>71</v>
@@ -5130,10 +5132,10 @@
         <v>64</v>
       </c>
       <c r="C16" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s" s="74">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s" s="75">
         <v>71</v>
@@ -5169,10 +5171,10 @@
         <v>64</v>
       </c>
       <c r="C17" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s" s="74">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s" s="75">
         <v>71</v>
@@ -5208,10 +5210,10 @@
         <v>64</v>
       </c>
       <c r="C18" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s" s="74">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s" s="75">
         <v>71</v>
@@ -5250,10 +5252,10 @@
         <v>65</v>
       </c>
       <c r="D19" t="s" s="74">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
@@ -5289,10 +5291,10 @@
         <v>73</v>
       </c>
       <c r="D20" t="s" s="74">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s" s="75">
         <v>89</v>
-      </c>
-      <c r="E20" t="s" s="75">
-        <v>88</v>
       </c>
       <c r="F20" s="76"/>
       <c r="G20" s="76"/>
@@ -5328,10 +5330,10 @@
         <v>75</v>
       </c>
       <c r="D21" t="s" s="74">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="76"/>
       <c r="G21" s="76"/>
@@ -5340,7 +5342,9 @@
       <c r="J21" t="s" s="77">
         <v>68</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" t="s" s="77">
+        <v>77</v>
+      </c>
       <c r="L21" s="78"/>
       <c r="M21" s="78"/>
       <c r="N21" s="78"/>
@@ -5364,13 +5368,13 @@
         <v>64</v>
       </c>
       <c r="C22" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s" s="74">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="76"/>
       <c r="G22" s="76"/>
@@ -5403,13 +5407,13 @@
         <v>64</v>
       </c>
       <c r="C23" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s" s="74">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="76"/>
       <c r="G23" s="76"/>
@@ -5442,13 +5446,13 @@
         <v>64</v>
       </c>
       <c r="C24" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s" s="74">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="76"/>
       <c r="G24" s="76"/>
@@ -5481,13 +5485,13 @@
         <v>64</v>
       </c>
       <c r="C25" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s" s="74">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="76"/>
       <c r="G25" s="76"/>
@@ -5520,13 +5524,13 @@
         <v>64</v>
       </c>
       <c r="C26" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s" s="74">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="76"/>
       <c r="G26" s="76"/>
@@ -5562,10 +5566,10 @@
         <v>65</v>
       </c>
       <c r="D27" t="s" s="74">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="76"/>
       <c r="G27" s="76"/>
@@ -5585,7 +5589,7 @@
       <c r="S27" s="78"/>
       <c r="T27" s="78"/>
       <c r="U27" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V27" s="79"/>
       <c r="W27" t="s" s="77">
@@ -5603,10 +5607,10 @@
         <v>73</v>
       </c>
       <c r="D28" t="s" s="74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="76"/>
       <c r="G28" s="76"/>
@@ -5626,7 +5630,7 @@
       <c r="S28" s="78"/>
       <c r="T28" s="78"/>
       <c r="U28" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V28" s="79"/>
       <c r="W28" t="s" s="77">
@@ -5644,28 +5648,28 @@
         <v>75</v>
       </c>
       <c r="D29" t="s" s="74">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="76"/>
       <c r="G29" s="76"/>
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
       <c r="J29" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s" s="77">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" t="s" s="77">
         <v>68</v>
@@ -5674,14 +5678,14 @@
         <v>68</v>
       </c>
       <c r="R29" t="s" s="80">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S29" t="s" s="81">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T29" s="82"/>
       <c r="U29" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V29" s="79"/>
       <c r="W29" t="s" s="77">
@@ -5696,13 +5700,13 @@
         <v>64</v>
       </c>
       <c r="C30" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s" s="74">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="76"/>
       <c r="G30" s="76"/>
@@ -5722,7 +5726,7 @@
       <c r="S30" s="78"/>
       <c r="T30" s="78"/>
       <c r="U30" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V30" s="79"/>
       <c r="W30" t="s" s="77">
@@ -5737,13 +5741,13 @@
         <v>64</v>
       </c>
       <c r="C31" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s" s="74">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="76"/>
       <c r="G31" s="76"/>
@@ -5763,7 +5767,7 @@
       <c r="S31" s="78"/>
       <c r="T31" s="78"/>
       <c r="U31" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V31" s="79"/>
       <c r="W31" t="s" s="77">
@@ -5778,13 +5782,13 @@
         <v>64</v>
       </c>
       <c r="C32" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s" s="74">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="76"/>
       <c r="G32" s="76"/>
@@ -5804,7 +5808,7 @@
       <c r="S32" s="78"/>
       <c r="T32" s="78"/>
       <c r="U32" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V32" s="79"/>
       <c r="W32" t="s" s="77">
@@ -5819,13 +5823,13 @@
         <v>64</v>
       </c>
       <c r="C33" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s" s="74">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="76"/>
       <c r="G33" s="76"/>
@@ -5845,7 +5849,7 @@
       <c r="S33" s="78"/>
       <c r="T33" s="78"/>
       <c r="U33" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V33" s="79"/>
       <c r="W33" t="s" s="77">
@@ -5860,13 +5864,13 @@
         <v>64</v>
       </c>
       <c r="C34" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s" s="74">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s" s="75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="76"/>
       <c r="G34" s="76"/>
@@ -5886,7 +5890,7 @@
       <c r="S34" s="78"/>
       <c r="T34" s="78"/>
       <c r="U34" t="s" s="77">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V34" s="79"/>
       <c r="W34" t="s" s="77">
@@ -5904,10 +5908,10 @@
         <v>65</v>
       </c>
       <c r="D35" t="s" s="74">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s" s="75">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35" s="76"/>
       <c r="G35" s="76"/>
@@ -5943,10 +5947,10 @@
         <v>65</v>
       </c>
       <c r="D36" t="s" s="74">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s" s="75">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36" s="76"/>
       <c r="G36" s="76"/>
@@ -5982,10 +5986,10 @@
         <v>65</v>
       </c>
       <c r="D37" t="s" s="74">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s" s="75">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
@@ -6021,10 +6025,10 @@
         <v>65</v>
       </c>
       <c r="D38" t="s" s="74">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s" s="75">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="76"/>
       <c r="G38" s="76"/>
@@ -6060,10 +6064,10 @@
         <v>65</v>
       </c>
       <c r="D39" t="s" s="74">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s" s="75">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="76"/>
       <c r="G39" s="76"/>
@@ -6099,10 +6103,10 @@
         <v>65</v>
       </c>
       <c r="D40" t="s" s="74">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s" s="75">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="76"/>
       <c r="G40" s="76"/>
@@ -6138,10 +6142,10 @@
         <v>65</v>
       </c>
       <c r="D41" t="s" s="74">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s" s="75">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="76"/>
       <c r="G41" s="76"/>
@@ -6177,10 +6181,10 @@
         <v>65</v>
       </c>
       <c r="D42" t="s" s="74">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s" s="75">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F42" s="76"/>
       <c r="G42" s="76"/>
@@ -6216,10 +6220,10 @@
         <v>73</v>
       </c>
       <c r="D43" t="s" s="74">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s" s="75">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="76"/>
       <c r="G43" s="76"/>
@@ -6255,10 +6259,10 @@
         <v>73</v>
       </c>
       <c r="D44" t="s" s="74">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s" s="75">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F44" s="76"/>
       <c r="G44" s="76"/>
@@ -6294,10 +6298,10 @@
         <v>73</v>
       </c>
       <c r="D45" t="s" s="74">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s" s="75">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" s="76"/>
       <c r="G45" s="76"/>
@@ -6333,10 +6337,10 @@
         <v>73</v>
       </c>
       <c r="D46" t="s" s="74">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s" s="75">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F46" s="76"/>
       <c r="G46" s="76"/>
@@ -6372,10 +6376,10 @@
         <v>73</v>
       </c>
       <c r="D47" t="s" s="74">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s" s="75">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F47" s="76"/>
       <c r="G47" s="76"/>
@@ -6411,10 +6415,10 @@
         <v>73</v>
       </c>
       <c r="D48" t="s" s="74">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s" s="75">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F48" s="76"/>
       <c r="G48" s="76"/>
@@ -6450,10 +6454,10 @@
         <v>73</v>
       </c>
       <c r="D49" t="s" s="74">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s" s="75">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F49" s="76"/>
       <c r="G49" s="76"/>
@@ -6489,10 +6493,10 @@
         <v>73</v>
       </c>
       <c r="D50" t="s" s="74">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s" s="75">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
@@ -6528,10 +6532,10 @@
         <v>73</v>
       </c>
       <c r="D51" t="s" s="74">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s" s="75">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
@@ -6567,10 +6571,10 @@
         <v>73</v>
       </c>
       <c r="D52" t="s" s="74">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s" s="75">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F52" s="76"/>
       <c r="G52" s="76"/>
@@ -6603,13 +6607,13 @@
         <v>64</v>
       </c>
       <c r="C53" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s" s="74">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s" s="75">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F53" s="76"/>
       <c r="G53" s="76"/>
@@ -6642,13 +6646,13 @@
         <v>64</v>
       </c>
       <c r="C54" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s" s="74">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s" s="75">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>
@@ -6681,13 +6685,13 @@
         <v>64</v>
       </c>
       <c r="C55" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s" s="74">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s" s="75">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F55" s="76"/>
       <c r="G55" s="76"/>
@@ -6720,13 +6724,13 @@
         <v>64</v>
       </c>
       <c r="C56" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s" s="74">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s" s="75">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F56" s="76"/>
       <c r="G56" s="76"/>
@@ -6759,13 +6763,13 @@
         <v>64</v>
       </c>
       <c r="C57" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s" s="74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s" s="75">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F57" s="76"/>
       <c r="G57" s="76"/>
@@ -6798,13 +6802,13 @@
         <v>64</v>
       </c>
       <c r="C58" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s" s="74">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s" s="75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>
@@ -6837,13 +6841,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s" s="74">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s" s="75">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F59" s="76"/>
       <c r="G59" s="76"/>
@@ -6876,13 +6880,13 @@
         <v>64</v>
       </c>
       <c r="C60" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s" s="74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s" s="75">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F60" s="76"/>
       <c r="G60" s="76"/>
@@ -6915,13 +6919,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s" s="74">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s" s="75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F61" s="76"/>
       <c r="G61" s="76"/>
@@ -6954,13 +6958,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s" s="74">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s" s="75">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F62" s="76"/>
       <c r="G62" s="76"/>
@@ -6993,13 +6997,13 @@
         <v>64</v>
       </c>
       <c r="C63" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s" s="74">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s" s="75">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F63" s="76"/>
       <c r="G63" s="76"/>
@@ -7032,13 +7036,13 @@
         <v>64</v>
       </c>
       <c r="C64" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s" s="74">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s" s="75">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F64" s="76"/>
       <c r="G64" s="76"/>
@@ -7071,13 +7075,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s" s="74">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E65" t="s" s="75">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F65" s="76"/>
       <c r="G65" s="76"/>
@@ -7110,13 +7114,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s" s="74">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s" s="75">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F66" s="76"/>
       <c r="G66" s="76"/>
@@ -7149,13 +7153,13 @@
         <v>64</v>
       </c>
       <c r="C67" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s" s="74">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s" s="75">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F67" s="76"/>
       <c r="G67" s="76"/>
@@ -7188,13 +7192,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s" s="74">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E68" t="s" s="75">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F68" s="76"/>
       <c r="G68" s="76"/>
@@ -7227,13 +7231,13 @@
         <v>64</v>
       </c>
       <c r="C69" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s" s="74">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s" s="75">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F69" s="76"/>
       <c r="G69" s="76"/>
@@ -7266,13 +7270,13 @@
         <v>64</v>
       </c>
       <c r="C70" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s" s="74">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s" s="75">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F70" s="76"/>
       <c r="G70" s="76"/>
@@ -7305,13 +7309,13 @@
         <v>64</v>
       </c>
       <c r="C71" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s" s="74">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s" s="75">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F71" s="76"/>
       <c r="G71" s="76"/>
@@ -7344,13 +7348,13 @@
         <v>64</v>
       </c>
       <c r="C72" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s" s="74">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s" s="75">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F72" s="76"/>
       <c r="G72" s="76"/>
@@ -7383,13 +7387,13 @@
         <v>64</v>
       </c>
       <c r="C73" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s" s="74">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s" s="75">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F73" s="76"/>
       <c r="G73" s="76"/>
@@ -7422,13 +7426,13 @@
         <v>64</v>
       </c>
       <c r="C74" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s" s="74">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s" s="75">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F74" s="76"/>
       <c r="G74" s="76"/>
@@ -7461,13 +7465,13 @@
         <v>64</v>
       </c>
       <c r="C75" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s" s="74">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s" s="75">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F75" s="76"/>
       <c r="G75" s="76"/>
@@ -7500,13 +7504,13 @@
         <v>64</v>
       </c>
       <c r="C76" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s" s="74">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s" s="75">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F76" s="76"/>
       <c r="G76" s="76"/>
@@ -7539,13 +7543,13 @@
         <v>64</v>
       </c>
       <c r="C77" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s" s="74">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s" s="75">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F77" s="76"/>
       <c r="G77" s="76"/>
@@ -7578,13 +7582,13 @@
         <v>64</v>
       </c>
       <c r="C78" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s" s="74">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s" s="75">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F78" s="76"/>
       <c r="G78" s="76"/>
@@ -7617,13 +7621,13 @@
         <v>64</v>
       </c>
       <c r="C79" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s" s="74">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s" s="75">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F79" s="76"/>
       <c r="G79" s="76"/>
@@ -7656,13 +7660,13 @@
         <v>64</v>
       </c>
       <c r="C80" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s" s="74">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s" s="75">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F80" s="76"/>
       <c r="G80" s="76"/>
@@ -7695,13 +7699,13 @@
         <v>64</v>
       </c>
       <c r="C81" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s" s="74">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s" s="75">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F81" s="76"/>
       <c r="G81" s="76"/>
@@ -7734,13 +7738,13 @@
         <v>64</v>
       </c>
       <c r="C82" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s" s="74">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E82" t="s" s="75">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F82" s="76"/>
       <c r="G82" s="76"/>
@@ -7773,13 +7777,13 @@
         <v>64</v>
       </c>
       <c r="C83" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s" s="74">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s" s="75">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F83" s="76"/>
       <c r="G83" s="76"/>
@@ -7812,13 +7816,13 @@
         <v>64</v>
       </c>
       <c r="C84" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s" s="74">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E84" t="s" s="75">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F84" s="76"/>
       <c r="G84" s="76"/>
@@ -7851,13 +7855,13 @@
         <v>64</v>
       </c>
       <c r="C85" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s" s="74">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E85" t="s" s="75">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F85" s="76"/>
       <c r="G85" s="76"/>
@@ -7890,13 +7894,13 @@
         <v>64</v>
       </c>
       <c r="C86" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s" s="74">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s" s="75">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F86" s="76"/>
       <c r="G86" s="76"/>
@@ -7929,13 +7933,13 @@
         <v>64</v>
       </c>
       <c r="C87" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D87" t="s" s="74">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s" s="75">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F87" s="76"/>
       <c r="G87" s="76"/>
@@ -7968,13 +7972,13 @@
         <v>64</v>
       </c>
       <c r="C88" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s" s="74">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E88" t="s" s="75">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F88" s="76"/>
       <c r="G88" s="76"/>
@@ -8007,13 +8011,13 @@
         <v>64</v>
       </c>
       <c r="C89" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s" s="74">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s" s="75">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F89" s="76"/>
       <c r="G89" s="76"/>
@@ -8046,13 +8050,13 @@
         <v>64</v>
       </c>
       <c r="C90" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s" s="74">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s" s="75">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F90" s="76"/>
       <c r="G90" s="76"/>
@@ -8085,13 +8089,13 @@
         <v>64</v>
       </c>
       <c r="C91" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s" s="74">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s" s="75">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F91" s="76"/>
       <c r="G91" s="76"/>
@@ -8124,13 +8128,13 @@
         <v>64</v>
       </c>
       <c r="C92" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D92" t="s" s="74">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E92" t="s" s="75">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F92" s="76"/>
       <c r="G92" s="76"/>
@@ -8163,13 +8167,13 @@
         <v>64</v>
       </c>
       <c r="C93" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s" s="74">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s" s="75">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F93" s="76"/>
       <c r="G93" s="76"/>
@@ -8202,13 +8206,13 @@
         <v>64</v>
       </c>
       <c r="C94" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D94" t="s" s="74">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E94" t="s" s="75">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F94" s="76"/>
       <c r="G94" s="76"/>
@@ -8241,13 +8245,13 @@
         <v>64</v>
       </c>
       <c r="C95" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s" s="74">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s" s="75">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F95" s="76"/>
       <c r="G95" s="76"/>
@@ -8280,13 +8284,13 @@
         <v>64</v>
       </c>
       <c r="C96" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D96" t="s" s="74">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s" s="75">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F96" s="76"/>
       <c r="G96" s="76"/>
@@ -8319,13 +8323,13 @@
         <v>64</v>
       </c>
       <c r="C97" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s" s="74">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s" s="75">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F97" s="76"/>
       <c r="G97" s="76"/>
@@ -8358,13 +8362,13 @@
         <v>64</v>
       </c>
       <c r="C98" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D98" t="s" s="74">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E98" t="s" s="75">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F98" s="76"/>
       <c r="G98" s="76"/>
@@ -8397,13 +8401,13 @@
         <v>64</v>
       </c>
       <c r="C99" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s" s="74">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s" s="75">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F99" s="76"/>
       <c r="G99" s="76"/>
@@ -8436,13 +8440,13 @@
         <v>64</v>
       </c>
       <c r="C100" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s" s="74">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E100" t="s" s="75">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F100" s="76"/>
       <c r="G100" s="76"/>
@@ -8475,13 +8479,13 @@
         <v>64</v>
       </c>
       <c r="C101" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s" s="74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E101" t="s" s="75">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F101" s="76"/>
       <c r="G101" s="76"/>
@@ -8514,13 +8518,13 @@
         <v>64</v>
       </c>
       <c r="C102" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s" s="74">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s" s="75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F102" s="76"/>
       <c r="G102" s="76"/>
@@ -8553,13 +8557,13 @@
         <v>64</v>
       </c>
       <c r="C103" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s" s="74">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" t="s" s="75">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F103" s="76"/>
       <c r="G103" s="76"/>
@@ -8592,13 +8596,13 @@
         <v>64</v>
       </c>
       <c r="C104" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s" s="74">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E104" t="s" s="75">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F104" s="76"/>
       <c r="G104" s="76"/>
@@ -8631,13 +8635,13 @@
         <v>64</v>
       </c>
       <c r="C105" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D105" t="s" s="74">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E105" t="s" s="75">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F105" s="76"/>
       <c r="G105" s="76"/>
@@ -8670,13 +8674,13 @@
         <v>64</v>
       </c>
       <c r="C106" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s" s="74">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E106" t="s" s="75">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F106" s="76"/>
       <c r="G106" s="76"/>
@@ -8709,13 +8713,13 @@
         <v>64</v>
       </c>
       <c r="C107" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s" s="74">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E107" t="s" s="75">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F107" s="76"/>
       <c r="G107" s="76"/>
@@ -8748,13 +8752,13 @@
         <v>64</v>
       </c>
       <c r="C108" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s" s="74">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E108" t="s" s="75">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F108" s="76"/>
       <c r="G108" s="76"/>
@@ -8787,13 +8791,13 @@
         <v>64</v>
       </c>
       <c r="C109" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s" s="74">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E109" t="s" s="75">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F109" s="76"/>
       <c r="G109" s="76"/>
@@ -8826,13 +8830,13 @@
         <v>64</v>
       </c>
       <c r="C110" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s" s="74">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E110" t="s" s="75">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F110" s="76"/>
       <c r="G110" s="76"/>
@@ -8865,13 +8869,13 @@
         <v>64</v>
       </c>
       <c r="C111" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D111" t="s" s="74">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s" s="75">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F111" s="76"/>
       <c r="G111" s="76"/>
@@ -8904,13 +8908,13 @@
         <v>64</v>
       </c>
       <c r="C112" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D112" t="s" s="74">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s" s="75">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F112" s="76"/>
       <c r="G112" s="76"/>
@@ -8943,13 +8947,13 @@
         <v>64</v>
       </c>
       <c r="C113" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D113" t="s" s="74">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E113" t="s" s="75">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F113" s="76"/>
       <c r="G113" s="76"/>
@@ -8982,13 +8986,13 @@
         <v>64</v>
       </c>
       <c r="C114" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D114" t="s" s="74">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s" s="75">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F114" s="76"/>
       <c r="G114" s="76"/>
@@ -9021,13 +9025,13 @@
         <v>64</v>
       </c>
       <c r="C115" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s" s="74">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E115" t="s" s="75">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F115" s="76"/>
       <c r="G115" s="76"/>
@@ -9060,13 +9064,13 @@
         <v>64</v>
       </c>
       <c r="C116" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s" s="74">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E116" t="s" s="75">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F116" s="76"/>
       <c r="G116" s="76"/>
@@ -9099,13 +9103,13 @@
         <v>64</v>
       </c>
       <c r="C117" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s" s="74">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s" s="75">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F117" s="76"/>
       <c r="G117" s="76"/>
@@ -9138,13 +9142,13 @@
         <v>64</v>
       </c>
       <c r="C118" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D118" t="s" s="74">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s" s="75">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F118" s="76"/>
       <c r="G118" s="76"/>
@@ -9177,13 +9181,13 @@
         <v>64</v>
       </c>
       <c r="C119" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D119" t="s" s="74">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E119" t="s" s="75">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F119" s="76"/>
       <c r="G119" s="76"/>
@@ -9216,13 +9220,13 @@
         <v>64</v>
       </c>
       <c r="C120" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D120" t="s" s="74">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E120" t="s" s="75">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F120" s="76"/>
       <c r="G120" s="76"/>
@@ -9255,13 +9259,13 @@
         <v>64</v>
       </c>
       <c r="C121" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D121" t="s" s="74">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s" s="75">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F121" s="76"/>
       <c r="G121" s="76"/>
@@ -9294,13 +9298,13 @@
         <v>64</v>
       </c>
       <c r="C122" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D122" t="s" s="74">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E122" t="s" s="75">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F122" s="76"/>
       <c r="G122" s="76"/>
@@ -9333,13 +9337,13 @@
         <v>64</v>
       </c>
       <c r="C123" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D123" t="s" s="74">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E123" t="s" s="75">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F123" s="76"/>
       <c r="G123" s="76"/>
@@ -9372,13 +9376,13 @@
         <v>64</v>
       </c>
       <c r="C124" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D124" t="s" s="74">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s" s="75">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F124" s="76"/>
       <c r="G124" s="76"/>
@@ -9411,13 +9415,13 @@
         <v>64</v>
       </c>
       <c r="C125" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D125" t="s" s="74">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s" s="75">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F125" s="76"/>
       <c r="G125" s="76"/>
@@ -9450,13 +9454,13 @@
         <v>64</v>
       </c>
       <c r="C126" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D126" t="s" s="74">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E126" t="s" s="75">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F126" s="76"/>
       <c r="G126" s="76"/>
@@ -9489,13 +9493,13 @@
         <v>64</v>
       </c>
       <c r="C127" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s" s="74">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E127" t="s" s="75">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F127" s="76"/>
       <c r="G127" s="76"/>
@@ -9528,13 +9532,13 @@
         <v>64</v>
       </c>
       <c r="C128" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D128" t="s" s="74">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E128" t="s" s="75">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F128" s="76"/>
       <c r="G128" s="76"/>
@@ -9567,13 +9571,13 @@
         <v>64</v>
       </c>
       <c r="C129" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D129" t="s" s="74">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s" s="75">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F129" s="76"/>
       <c r="G129" s="76"/>
@@ -9606,13 +9610,13 @@
         <v>64</v>
       </c>
       <c r="C130" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D130" t="s" s="74">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E130" t="s" s="75">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F130" s="76"/>
       <c r="G130" s="76"/>
@@ -9648,10 +9652,10 @@
         <v>75</v>
       </c>
       <c r="D131" t="s" s="74">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E131" t="s" s="75">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F131" s="76"/>
       <c r="G131" s="76"/>
@@ -9661,7 +9665,7 @@
         <v>68</v>
       </c>
       <c r="K131" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L131" s="82"/>
       <c r="M131" s="78"/>
@@ -9689,10 +9693,10 @@
         <v>75</v>
       </c>
       <c r="D132" t="s" s="74">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E132" t="s" s="75">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F132" s="76"/>
       <c r="G132" s="76"/>
@@ -9702,7 +9706,7 @@
         <v>68</v>
       </c>
       <c r="K132" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L132" s="82"/>
       <c r="M132" s="78"/>
@@ -9730,10 +9734,10 @@
         <v>75</v>
       </c>
       <c r="D133" t="s" s="74">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E133" t="s" s="75">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F133" s="76"/>
       <c r="G133" s="76"/>
@@ -9743,7 +9747,7 @@
         <v>68</v>
       </c>
       <c r="K133" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L133" s="82"/>
       <c r="M133" s="78"/>
@@ -9771,10 +9775,10 @@
         <v>75</v>
       </c>
       <c r="D134" t="s" s="74">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E134" t="s" s="75">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F134" s="76"/>
       <c r="G134" s="76"/>
@@ -9784,7 +9788,7 @@
         <v>68</v>
       </c>
       <c r="K134" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L134" s="82"/>
       <c r="M134" s="78"/>
@@ -9812,10 +9816,10 @@
         <v>75</v>
       </c>
       <c r="D135" t="s" s="74">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E135" t="s" s="75">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F135" s="76"/>
       <c r="G135" s="76"/>
@@ -9825,7 +9829,7 @@
         <v>68</v>
       </c>
       <c r="K135" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L135" s="82"/>
       <c r="M135" s="78"/>
@@ -9853,10 +9857,10 @@
         <v>75</v>
       </c>
       <c r="D136" t="s" s="74">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E136" t="s" s="75">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F136" s="76"/>
       <c r="G136" s="76"/>
@@ -9866,7 +9870,7 @@
         <v>68</v>
       </c>
       <c r="K136" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L136" s="82"/>
       <c r="M136" s="78"/>
@@ -9894,10 +9898,10 @@
         <v>75</v>
       </c>
       <c r="D137" t="s" s="74">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E137" t="s" s="75">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F137" s="76"/>
       <c r="G137" s="76"/>
@@ -9907,7 +9911,7 @@
         <v>68</v>
       </c>
       <c r="K137" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L137" s="82"/>
       <c r="M137" s="78"/>
@@ -9935,10 +9939,10 @@
         <v>75</v>
       </c>
       <c r="D138" t="s" s="74">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E138" t="s" s="75">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F138" s="76"/>
       <c r="G138" s="76"/>
@@ -9948,7 +9952,7 @@
         <v>68</v>
       </c>
       <c r="K138" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L138" s="82"/>
       <c r="M138" s="78"/>
@@ -9976,10 +9980,10 @@
         <v>75</v>
       </c>
       <c r="D139" t="s" s="74">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E139" t="s" s="75">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F139" s="76"/>
       <c r="G139" s="76"/>
@@ -9989,7 +9993,7 @@
         <v>68</v>
       </c>
       <c r="K139" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L139" s="82"/>
       <c r="M139" s="78"/>
@@ -10017,10 +10021,10 @@
         <v>75</v>
       </c>
       <c r="D140" t="s" s="74">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E140" t="s" s="75">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F140" s="76"/>
       <c r="G140" s="76"/>
@@ -10030,7 +10034,7 @@
         <v>68</v>
       </c>
       <c r="K140" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L140" s="82"/>
       <c r="M140" s="78"/>
@@ -10058,10 +10062,10 @@
         <v>75</v>
       </c>
       <c r="D141" t="s" s="74">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E141" t="s" s="75">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F141" s="76"/>
       <c r="G141" s="76"/>
@@ -10071,7 +10075,7 @@
         <v>68</v>
       </c>
       <c r="K141" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L141" s="82"/>
       <c r="M141" s="78"/>
@@ -10099,10 +10103,10 @@
         <v>75</v>
       </c>
       <c r="D142" t="s" s="74">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E142" t="s" s="75">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F142" s="76"/>
       <c r="G142" s="76"/>
@@ -10112,7 +10116,7 @@
         <v>68</v>
       </c>
       <c r="K142" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L142" s="82"/>
       <c r="M142" s="78"/>
@@ -10140,10 +10144,10 @@
         <v>75</v>
       </c>
       <c r="D143" t="s" s="74">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E143" t="s" s="75">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F143" s="76"/>
       <c r="G143" s="76"/>
@@ -10153,7 +10157,7 @@
         <v>68</v>
       </c>
       <c r="K143" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L143" s="82"/>
       <c r="M143" s="78"/>
@@ -10181,10 +10185,10 @@
         <v>75</v>
       </c>
       <c r="D144" t="s" s="74">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E144" t="s" s="75">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F144" s="76"/>
       <c r="G144" s="76"/>
@@ -10194,7 +10198,7 @@
         <v>68</v>
       </c>
       <c r="K144" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L144" s="82"/>
       <c r="M144" s="78"/>
@@ -10222,10 +10226,10 @@
         <v>75</v>
       </c>
       <c r="D145" t="s" s="74">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E145" t="s" s="75">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F145" s="76"/>
       <c r="G145" s="76"/>
@@ -10235,7 +10239,7 @@
         <v>68</v>
       </c>
       <c r="K145" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L145" s="82"/>
       <c r="M145" s="78"/>
@@ -10263,10 +10267,10 @@
         <v>65</v>
       </c>
       <c r="D146" t="s" s="74">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E146" t="s" s="75">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F146" s="76"/>
       <c r="G146" s="76"/>
@@ -10302,10 +10306,10 @@
         <v>65</v>
       </c>
       <c r="D147" t="s" s="74">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E147" t="s" s="75">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F147" s="76"/>
       <c r="G147" s="76"/>
@@ -10338,13 +10342,13 @@
         <v>64</v>
       </c>
       <c r="C148" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s" s="74">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E148" t="s" s="75">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F148" s="76"/>
       <c r="G148" s="76"/>
@@ -10377,13 +10381,13 @@
         <v>64</v>
       </c>
       <c r="C149" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D149" t="s" s="74">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E149" t="s" s="75">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F149" s="76"/>
       <c r="G149" s="76"/>
@@ -10416,13 +10420,13 @@
         <v>64</v>
       </c>
       <c r="C150" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D150" t="s" s="74">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E150" t="s" s="75">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F150" s="76"/>
       <c r="G150" s="76"/>
@@ -10455,10 +10459,10 @@
         <v>64</v>
       </c>
       <c r="C151" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D151" t="s" s="74">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E151" t="s" s="75">
         <v>71</v>
@@ -10494,13 +10498,13 @@
         <v>64</v>
       </c>
       <c r="C152" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D152" t="s" s="74">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E152" t="s" s="75">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F152" s="76"/>
       <c r="G152" s="76"/>
@@ -10533,13 +10537,13 @@
         <v>64</v>
       </c>
       <c r="C153" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D153" t="s" s="74">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E153" t="s" s="75">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F153" s="76"/>
       <c r="G153" s="76"/>
@@ -10572,13 +10576,13 @@
         <v>64</v>
       </c>
       <c r="C154" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D154" t="s" s="74">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E154" t="s" s="75">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F154" s="76"/>
       <c r="G154" s="76"/>
@@ -10611,13 +10615,13 @@
         <v>64</v>
       </c>
       <c r="C155" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s" s="74">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E155" t="s" s="75">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F155" s="76"/>
       <c r="G155" s="76"/>
@@ -10650,13 +10654,13 @@
         <v>64</v>
       </c>
       <c r="C156" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s" s="74">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E156" t="s" s="75">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F156" s="76"/>
       <c r="G156" s="76"/>
@@ -10689,13 +10693,13 @@
         <v>64</v>
       </c>
       <c r="C157" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D157" t="s" s="74">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E157" t="s" s="75">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F157" s="76"/>
       <c r="G157" s="76"/>
@@ -10728,13 +10732,13 @@
         <v>64</v>
       </c>
       <c r="C158" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s" s="74">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E158" t="s" s="75">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F158" s="76"/>
       <c r="G158" s="76"/>
@@ -10767,13 +10771,13 @@
         <v>64</v>
       </c>
       <c r="C159" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D159" t="s" s="74">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E159" t="s" s="75">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F159" s="76"/>
       <c r="G159" s="76"/>
@@ -10806,13 +10810,13 @@
         <v>64</v>
       </c>
       <c r="C160" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D160" t="s" s="74">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E160" t="s" s="75">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F160" s="76"/>
       <c r="G160" s="76"/>
@@ -10845,13 +10849,13 @@
         <v>64</v>
       </c>
       <c r="C161" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D161" t="s" s="74">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E161" t="s" s="75">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F161" s="76"/>
       <c r="G161" s="76"/>
@@ -10884,13 +10888,13 @@
         <v>64</v>
       </c>
       <c r="C162" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D162" t="s" s="74">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E162" t="s" s="75">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F162" s="76"/>
       <c r="G162" s="76"/>
@@ -10923,13 +10927,13 @@
         <v>64</v>
       </c>
       <c r="C163" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D163" t="s" s="74">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E163" t="s" s="75">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F163" s="76"/>
       <c r="G163" s="76"/>
@@ -10962,13 +10966,13 @@
         <v>64</v>
       </c>
       <c r="C164" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D164" t="s" s="74">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E164" t="s" s="75">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F164" s="76"/>
       <c r="G164" s="76"/>
@@ -11001,13 +11005,13 @@
         <v>64</v>
       </c>
       <c r="C165" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D165" t="s" s="74">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E165" t="s" s="75">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F165" s="76"/>
       <c r="G165" s="76"/>
@@ -11043,10 +11047,10 @@
         <v>73</v>
       </c>
       <c r="D166" t="s" s="74">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E166" t="s" s="75">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F166" s="76"/>
       <c r="G166" s="76"/>
@@ -11082,10 +11086,10 @@
         <v>73</v>
       </c>
       <c r="D167" t="s" s="74">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E167" t="s" s="75">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F167" s="76"/>
       <c r="G167" s="76"/>
@@ -11121,10 +11125,10 @@
         <v>65</v>
       </c>
       <c r="D168" t="s" s="74">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E168" t="s" s="75">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F168" s="76"/>
       <c r="G168" s="76"/>
@@ -11157,13 +11161,13 @@
         <v>64</v>
       </c>
       <c r="C169" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D169" t="s" s="74">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E169" t="s" s="75">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F169" s="76"/>
       <c r="G169" s="76"/>
@@ -11196,13 +11200,13 @@
         <v>64</v>
       </c>
       <c r="C170" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D170" t="s" s="74">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E170" t="s" s="75">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F170" s="76"/>
       <c r="G170" s="76"/>
@@ -11235,13 +11239,13 @@
         <v>64</v>
       </c>
       <c r="C171" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D171" t="s" s="74">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E171" t="s" s="75">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F171" s="76"/>
       <c r="G171" s="76"/>
@@ -11274,13 +11278,13 @@
         <v>64</v>
       </c>
       <c r="C172" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D172" t="s" s="74">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E172" t="s" s="75">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F172" s="76"/>
       <c r="G172" s="76"/>
@@ -11313,13 +11317,13 @@
         <v>64</v>
       </c>
       <c r="C173" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D173" t="s" s="74">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E173" t="s" s="75">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F173" s="76"/>
       <c r="G173" s="76"/>
@@ -11352,13 +11356,13 @@
         <v>64</v>
       </c>
       <c r="C174" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D174" t="s" s="74">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E174" t="s" s="75">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F174" s="76"/>
       <c r="G174" s="76"/>
@@ -11391,13 +11395,13 @@
         <v>64</v>
       </c>
       <c r="C175" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D175" t="s" s="74">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E175" t="s" s="75">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F175" s="76"/>
       <c r="G175" s="76"/>
@@ -11430,13 +11434,13 @@
         <v>64</v>
       </c>
       <c r="C176" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s" s="74">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E176" t="s" s="75">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F176" s="83"/>
       <c r="G176" s="83"/>
@@ -11469,13 +11473,13 @@
         <v>64</v>
       </c>
       <c r="C177" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D177" t="s" s="74">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E177" t="s" s="75">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F177" s="83"/>
       <c r="G177" s="83"/>
@@ -11508,13 +11512,13 @@
         <v>64</v>
       </c>
       <c r="C178" t="s" s="74">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D178" t="s" s="74">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E178" t="s" s="75">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F178" s="83"/>
       <c r="G178" s="83"/>
@@ -11547,13 +11551,13 @@
         <v>64</v>
       </c>
       <c r="C179" t="s" s="74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D179" t="s" s="74">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E179" t="s" s="75">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F179" s="83"/>
       <c r="G179" s="83"/>
@@ -11586,13 +11590,13 @@
         <v>64</v>
       </c>
       <c r="C180" t="s" s="74">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D180" t="s" s="74">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E180" t="s" s="75">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F180" s="83"/>
       <c r="G180" s="83"/>
@@ -11628,10 +11632,10 @@
         <v>65</v>
       </c>
       <c r="D181" t="s" s="74">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E181" t="s" s="75">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F181" s="83"/>
       <c r="G181" s="83"/>
@@ -11667,10 +11671,10 @@
         <v>73</v>
       </c>
       <c r="D182" t="s" s="74">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E182" t="s" s="75">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -11703,13 +11707,13 @@
         <v>64</v>
       </c>
       <c r="C183" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D183" t="s" s="74">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E183" t="s" s="75">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F183" s="83"/>
       <c r="G183" s="83"/>
@@ -11745,10 +11749,10 @@
         <v>75</v>
       </c>
       <c r="D184" t="s" s="74">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E184" t="s" s="75">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F184" s="83"/>
       <c r="G184" s="83"/>
@@ -11758,7 +11762,7 @@
         <v>68</v>
       </c>
       <c r="K184" t="s" s="81">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="78"/>
@@ -11783,13 +11787,13 @@
         <v>64</v>
       </c>
       <c r="C185" t="s" s="74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s" s="74">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E185" t="s" s="75">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F185" s="83"/>
       <c r="G185" s="83"/>
@@ -11822,13 +11826,13 @@
         <v>64</v>
       </c>
       <c r="C186" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D186" t="s" s="74">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s" s="75">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F186" s="76"/>
       <c r="G186" s="76"/>
@@ -11861,13 +11865,13 @@
         <v>64</v>
       </c>
       <c r="C187" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D187" t="s" s="74">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E187" t="s" s="75">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F187" s="76"/>
       <c r="G187" s="76"/>
@@ -11903,10 +11907,10 @@
         <v>65</v>
       </c>
       <c r="D188" t="s" s="74">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E188" t="s" s="75">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F188" s="76"/>
       <c r="G188" s="76"/>
@@ -11939,13 +11943,13 @@
         <v>64</v>
       </c>
       <c r="C189" t="s" s="74">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D189" t="s" s="74">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E189" t="s" s="75">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F189" s="76"/>
       <c r="G189" s="76"/>
@@ -11978,13 +11982,13 @@
         <v>64</v>
       </c>
       <c r="C190" t="s" s="74">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D190" t="s" s="74">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E190" t="s" s="75">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F190" s="76"/>
       <c r="G190" s="76"/>
@@ -12020,30 +12024,28 @@
         <v>75</v>
       </c>
       <c r="D191" t="s" s="74">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E191" t="s" s="75">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F191" t="s" s="85">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G191" t="s" s="85">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H191" t="s" s="85">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I191" t="s" s="85">
-        <v>424</v>
-      </c>
-      <c r="J191" t="s" s="80">
-        <v>98</v>
-      </c>
-      <c r="K191" t="s" s="81">
-        <v>302</v>
-      </c>
-      <c r="L191" s="82"/>
+        <v>425</v>
+      </c>
+      <c r="J191" t="s" s="77">
+        <v>99</v>
+      </c>
+      <c r="K191" s="78"/>
+      <c r="L191" s="78"/>
       <c r="M191" s="78"/>
       <c r="N191" s="78"/>
       <c r="O191" s="78"/>
@@ -12069,30 +12071,28 @@
         <v>75</v>
       </c>
       <c r="D192" t="s" s="74">
+        <v>426</v>
+      </c>
+      <c r="E192" t="s" s="75">
+        <v>427</v>
+      </c>
+      <c r="F192" t="s" s="85">
+        <v>423</v>
+      </c>
+      <c r="G192" t="s" s="85">
+        <v>423</v>
+      </c>
+      <c r="H192" t="s" s="85">
+        <v>424</v>
+      </c>
+      <c r="I192" t="s" s="85">
         <v>425</v>
       </c>
-      <c r="E192" t="s" s="75">
-        <v>426</v>
-      </c>
-      <c r="F192" t="s" s="85">
-        <v>422</v>
-      </c>
-      <c r="G192" t="s" s="85">
-        <v>422</v>
-      </c>
-      <c r="H192" t="s" s="85">
-        <v>423</v>
-      </c>
-      <c r="I192" t="s" s="85">
-        <v>424</v>
-      </c>
-      <c r="J192" t="s" s="80">
-        <v>98</v>
-      </c>
-      <c r="K192" t="s" s="81">
-        <v>302</v>
-      </c>
-      <c r="L192" s="82"/>
+      <c r="J192" t="s" s="77">
+        <v>99</v>
+      </c>
+      <c r="K192" s="78"/>
+      <c r="L192" s="78"/>
       <c r="M192" s="78"/>
       <c r="N192" s="78"/>
       <c r="O192" s="78"/>
@@ -12118,30 +12118,28 @@
         <v>75</v>
       </c>
       <c r="D193" t="s" s="74">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E193" t="s" s="75">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F193" t="s" s="85">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G193" t="s" s="85">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H193" t="s" s="85">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I193" t="s" s="85">
-        <v>424</v>
-      </c>
-      <c r="J193" t="s" s="80">
-        <v>98</v>
-      </c>
-      <c r="K193" t="s" s="81">
-        <v>302</v>
-      </c>
-      <c r="L193" s="82"/>
+        <v>425</v>
+      </c>
+      <c r="J193" t="s" s="77">
+        <v>99</v>
+      </c>
+      <c r="K193" s="78"/>
+      <c r="L193" s="78"/>
       <c r="M193" s="78"/>
       <c r="N193" s="78"/>
       <c r="O193" s="78"/>
@@ -25970,13 +25968,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J193 M10:N193 P10:R193">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K130 K146:K183 K185:K190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K130 K146:K183 K185:K193">
       <formula1>"Campo/sezione non gestito/a in modo strutturato dall’applicativo,Campo obbligatorio,Campo valorizzato di default,Campo valorizzato in automatico tramite dati recuperati da servizi esterni,Campo valorizzabile tramite selezione da un set di valori ammessi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:T193">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K145 K184 K191:K193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:K145 K184">
       <formula1>"Campo/sezione non gestito/a in modo strutturato dall’applicativo,Campo obbligatorio,Campo valorizzato di default,Campo valorizzato in automatico tramite dati recuperati da servizi esterni,Campo valorizzabile tramite selezione da un set di valori ammessi"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26004,7 +26002,7 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="92">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -26013,7 +26011,7 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="92">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -26022,7 +26020,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="92">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -26031,7 +26029,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="92">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -26040,7 +26038,7 @@
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="92">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -26058,7 +26056,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="92">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -26172,7 +26170,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="98">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="98">
         <v>441</v>
@@ -26189,7 +26187,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="98">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="98">
         <v>441</v>
@@ -26206,7 +26204,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="98">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="98">
         <v>441</v>
@@ -26223,7 +26221,7 @@
     </row>
     <row r="7" ht="14.5" customHeight="1">
       <c r="A7" t="s" s="98">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="98">
         <v>441</v>
@@ -26240,7 +26238,7 @@
     </row>
     <row r="8" ht="14.5" customHeight="1">
       <c r="A8" t="s" s="98">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s" s="98">
         <v>441</v>
@@ -26291,7 +26289,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="98">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s" s="98">
         <v>441</v>
@@ -26363,7 +26361,7 @@
         <v>463</v>
       </c>
       <c r="B2" t="s" s="106">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="104"/>
       <c r="D2" s="27"/>

--- a/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/3.3/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAVINCI.CARE/DaVinci Healthcare/DaVinci/3.3/report-checklist.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t>Questo documento è stato esportato da Numbers. Tutte le tabelle sono state convertite in un foglio di lavoro di Excel. Tutti gli altri oggetti di ciascun foglio di Numbers sono stati collocati in fogli di lavoro separati. Nota che i calcoli delle formule potrebbero differire in Excel.</t>
   </si>
@@ -1757,13 +1757,13 @@
 </t>
   </si>
   <si>
-    <t>2026-01-24T09:33:44Z</t>
-  </si>
-  <si>
-    <t>12fb745b12cac43de7e2538ba9716d6f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.f6faede3f8aae9063e9b4708dd04ae6bceacdd3b6e183c224474c4ff19738577.b6328d8013^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-02T08:35:49</t>
+  </si>
+  <si>
+    <t>304d9ef9f20335a538b46059776cbc8b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.3f62dda1d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT24</t>
@@ -1774,11 +1774,29 @@
 </t>
   </si>
   <si>
+    <t>2026-02-02T08:35:06</t>
+  </si>
+  <si>
+    <t>7c64832b571a937fad238ada0185209c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.fb1b26344a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT25</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. Il "CASO DI TEST 25" si riferisce a un esempio di CDA2 semplice, contenente esclusivamente sezioni ed elementi obbligatori previsti dalle specifiche nazionali (IG HL7 Italia)</t>
+  </si>
+  <si>
+    <t>2026-02-02T08:37:48</t>
+  </si>
+  <si>
+    <t>9e3e606ce6ef99d76ea9031909e77b62</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.f6faede3f8aae9063e9b4708dd04ae6bceacdd3b6e183c224474c4ff19738577.0c5d9c0fab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Razionale di Applicabilità</t>
@@ -1935,7 +1953,7 @@
     <font>
       <b val="1"/>
       <sz val="14"/>
-      <color indexed="13"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1996,7 +2014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -2023,11 +2041,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2036,7 +2054,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2044,17 +2062,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -2071,7 +2089,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -2079,12 +2097,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,105 +2122,94 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="medium">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="12"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="13"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -2233,13 +2251,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2305,28 +2323,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2364,7 +2382,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -2376,7 +2394,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -2394,13 +2412,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2424,7 +2442,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2433,26 +2451,26 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2461,10 +2479,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2473,13 +2491,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2488,16 +2506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2506,7 +2524,7 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -2518,10 +2536,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -2533,7 +2551,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -2629,10 +2647,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2641,7 +2659,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -2653,7 +2671,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -2669,26 +2687,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2720,28 +2738,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2759,20 +2777,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -3043,8 +3061,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff4472c4"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffd9e2f3"/>
@@ -4086,7 +4104,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4284,16 +4302,19 @@
       <c r="D20" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="7"/>
       <c r="B21" t="s" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="20"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s" s="4">
         <v>5</v>
@@ -4301,6 +4322,7 @@
       <c r="D22" t="s" s="5">
         <v>16</v>
       </c>
+      <c r="E22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4310,11 +4332,12 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Riepilogo di esportazione'!R1C1" tooltip="" display="Riepilogo di esportazione"/>
     <hyperlink ref="D10" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
-    <hyperlink ref="D12" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
-    <hyperlink ref="D14" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
-    <hyperlink ref="D16" location="'LISTA VALORI'!R1C1" tooltip="" display="LISTA VALORI"/>
-    <hyperlink ref="D18" location="'Summary'!R1C1" tooltip="" display="Summary"/>
-    <hyperlink ref="D20" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
+    <hyperlink ref="D12" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
+    <hyperlink ref="D14" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
+    <hyperlink ref="D16" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
+    <hyperlink ref="D18" location="'LISTA VALORI'!R1C1" tooltip="" display="LISTA VALORI"/>
+    <hyperlink ref="D20" location="'Summary'!R1C1" tooltip="" display="Summary"/>
+    <hyperlink ref="D22" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
     <hyperlink ref="D12" location="'Istruzioni Compilazione'!R1C1" tooltip="" display="Istruzioni Compilazione"/>
     <hyperlink ref="D14" location="'Prerequisiti'!R1C1" tooltip="" display="Prerequisiti"/>
     <hyperlink ref="D16" location="'TestCases'!R1C1" tooltip="" display="TestCases"/>
@@ -12077,16 +12100,16 @@
         <v>427</v>
       </c>
       <c r="F192" t="s" s="85">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G192" t="s" s="85">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H192" t="s" s="85">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I192" t="s" s="85">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J192" t="s" s="77">
         <v>99</v>
@@ -12118,22 +12141,22 @@
         <v>75</v>
       </c>
       <c r="D193" t="s" s="74">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E193" t="s" s="75">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F193" t="s" s="85">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G193" t="s" s="85">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H193" t="s" s="85">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="I193" t="s" s="85">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="J193" t="s" s="77">
         <v>99</v>
@@ -26002,7 +26025,7 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="92">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -26011,7 +26034,7 @@
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="92">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -26020,7 +26043,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="92">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -26029,7 +26052,7 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="92">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -26047,7 +26070,7 @@
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="92">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -26065,7 +26088,7 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="92">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -26115,23 +26138,23 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="94">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s" s="94">
         <v>42</v>
       </c>
       <c r="C1" t="s" s="94">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s" s="94">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E1" s="95"/>
       <c r="F1" t="s" s="96">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G1" t="s" s="97">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -26139,13 +26162,13 @@
         <v>65</v>
       </c>
       <c r="B2" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s" s="99">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s" s="99">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="43"/>
@@ -26156,13 +26179,13 @@
         <v>73</v>
       </c>
       <c r="B3" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s" s="99">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s" s="99">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="27"/>
@@ -26173,13 +26196,13 @@
         <v>78</v>
       </c>
       <c r="B4" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s" s="99">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s" s="100">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="27"/>
@@ -26190,13 +26213,13 @@
         <v>82</v>
       </c>
       <c r="B5" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s" s="99">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s" s="99">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E5" s="54"/>
       <c r="F5" s="27"/>
@@ -26207,13 +26230,13 @@
         <v>84</v>
       </c>
       <c r="B6" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s" s="99">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s" s="100">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="27"/>
@@ -26224,13 +26247,13 @@
         <v>86</v>
       </c>
       <c r="B7" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s" s="99">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D7" t="s" s="100">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="27"/>
@@ -26241,13 +26264,13 @@
         <v>80</v>
       </c>
       <c r="B8" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s" s="99">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D8" t="s" s="100">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="27"/>
@@ -26258,13 +26281,13 @@
         <v>75</v>
       </c>
       <c r="B9" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s" s="99">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s" s="100">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="27"/>
@@ -26272,16 +26295,16 @@
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" t="s" s="98">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s" s="100">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s" s="99">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27"/>
@@ -26292,13 +26315,13 @@
         <v>336</v>
       </c>
       <c r="B11" t="s" s="98">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s" s="99">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s" s="100">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="27"/>
@@ -26358,7 +26381,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="105">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s" s="106">
         <v>99</v>
@@ -26369,7 +26392,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="105">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s" s="106">
         <v>68</v>
